--- a/templates/Planning.xlsx
+++ b/templates/Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GPM2\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GPM\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F63B458-B84E-4DC8-9244-8CB4F4AA858E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71E09A9-13DE-4326-8187-7C79284B0101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5460" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36255" yWindow="-4155" windowWidth="26985" windowHeight="16215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -716,8 +716,8 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C44" t="str">
-        <f>CONCATENATE("INSERT INTO `planning_users`(`id_user`, `dateplanned`, `quantity`, `type`) VALUES ('",$J29,"', '",TEXT(C$6,"yyyy-mm-dd"),"', '",C7,"', '",C18,"') ON DUPLICATE KEY UPDATE quantity='",C7,"', type='",C18,"';")</f>
-        <v>INSERT INTO `planning_users`(`id_user`, `dateplanned`, `quantity`, `type`) VALUES ('', '1900-01-00', '', '') ON DUPLICATE KEY UPDATE quantity='', type='';</v>
+        <f>CONCATENATE("INSERT INTO `planning_users`(`id_user`, `dateplanned`, `quantity`, `type`) VALUES ('",$J29,"', '",TEXT(C$6,"yyyy-mm-dd"),"', '",C7,"', '",C18,"') ON DUPLICATE KEY UPDATE quantity='",C7,"', type='",C18,"';"," UPDATE planning_modif set id_validator=-1 where id_user='",$J29,"' AND date(datemodif)='",TEXT(C$6,"yyyy-mm-dd"),"';")</f>
+        <v>INSERT INTO `planning_users`(`id_user`, `dateplanned`, `quantity`, `type`) VALUES ('', '1900-01-00', '', '') ON DUPLICATE KEY UPDATE quantity='', type=''; UPDATE planning_modif set id_validator=-1 where id_user='' AND date(datemodif)='1900-01-00';</v>
       </c>
     </row>
   </sheetData>

--- a/templates/Planning.xlsx
+++ b/templates/Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GPM\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71E09A9-13DE-4326-8187-7C79284B0101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A0CE0F-3B05-4D4C-9478-9FD0A3804668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36255" yWindow="-4155" windowWidth="26985" windowHeight="16215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32265" yWindow="-3120" windowWidth="22755" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>PLANNING en type de journée</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Actif</t>
   </si>
   <si>
-    <t>PLANNING en heures ou journée</t>
-  </si>
-  <si>
     <t>Summary</t>
   </si>
   <si>
@@ -76,6 +73,12 @@
   </si>
   <si>
     <t>Insertion GPM</t>
+  </si>
+  <si>
+    <t>PLANNING en heures ou journées réalisés</t>
+  </si>
+  <si>
+    <t>PLANNING en heures ou journées</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -140,6 +143,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -200,17 +209,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="42">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -275,6 +357,294 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF8064A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF8064A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -578,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:S44"/>
+  <dimension ref="A2:S57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,7 +962,7 @@
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
@@ -608,153 +978,218 @@
     <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:19" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:1" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:19" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+    <row r="29" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:19" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="M39" s="9"/>
+      <c r="N39" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="10" t="s">
+      <c r="O39" s="9"/>
+      <c r="P39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="9"/>
-      <c r="P26" s="10" t="s">
+      <c r="Q39" s="9"/>
+    </row>
+    <row r="40" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="L40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q26" s="9"/>
-    </row>
-    <row r="27" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="L27" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="N40" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N27" t="s">
-        <v>12</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="O40" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P40" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="P27" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>11</v>
-      </c>
-      <c r="R27"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J28" s="11"/>
-      <c r="L28">
-        <f>COUNTIF(17:17,1)+COUNTIF(17:17,6)</f>
+      <c r="Q40" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R40"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J41" s="11"/>
+      <c r="K41" s="14"/>
+      <c r="L41">
+        <f>COUNTIF(17:17,1)+COUNTIF(17:17,6)++COUNTIF(17:17,5)</f>
         <v>0</v>
       </c>
-      <c r="M28">
-        <f>SUMIF(17:17,1,6:6)+SUMIF(17:17,6,6:6)</f>
+      <c r="M41">
+        <f>SUMIF(17:17,1,6:6)+SUMIF(17:17,6,6:6)+SUMIF(17:17,5,6:6)</f>
         <v>0</v>
       </c>
-      <c r="N28">
+      <c r="N41">
         <f>COUNTIF(17:17,2)</f>
         <v>0</v>
       </c>
-      <c r="O28">
+      <c r="O41">
         <f>SUMIF(17:17,2,6:6)</f>
         <v>0</v>
       </c>
-      <c r="P28">
+      <c r="P41">
         <f>SUMIFS(17:17,17:17,1,$4:$4,6)</f>
         <v>0</v>
       </c>
-      <c r="Q28">
+      <c r="Q41">
         <f>SUMIFS(6:6,17:17,1,$4:$4,6)</f>
         <v>0</v>
       </c>
-      <c r="R28" s="13" t="s">
+      <c r="R41" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S41" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="S28" s="12" t="s">
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K44" s="14"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="14"/>
+    </row>
+    <row r="56" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B56" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B43" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C44" t="str">
-        <f>CONCATENATE("INSERT INTO `planning_users`(`id_user`, `dateplanned`, `quantity`, `type`) VALUES ('",$J29,"', '",TEXT(C$6,"yyyy-mm-dd"),"', '",C7,"', '",C18,"') ON DUPLICATE KEY UPDATE quantity='",C7,"', type='",C18,"';"," UPDATE planning_modif set id_validator=-1 where id_user='",$J29,"' AND date(datemodif)='",TEXT(C$6,"yyyy-mm-dd"),"';")</f>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C57" t="str">
+        <f>CONCATENATE("INSERT INTO `planning_users`(`id_user`, `dateplanned`, `quantity`, `type`) VALUES ('",$J42,"', '",TEXT(C$6,"yyyy-mm-dd"),"', '",C7,"', '",C29,"') ON DUPLICATE KEY UPDATE quantity='",C7,"', type='",C29,"';"," UPDATE planning_modif set id_validator=-1 where id_user='",$J42,"' AND date(datemodif)='",TEXT(C$6,"yyyy-mm-dd"),"';")</f>
         <v>INSERT INTO `planning_users`(`id_user`, `dateplanned`, `quantity`, `type`) VALUES ('', '1900-01-00', '', '') ON DUPLICATE KEY UPDATE quantity='', type=''; UPDATE planning_modif set id_validator=-1 where id_user='' AND date(datemodif)='1900-01-00';</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(A7=0,OR(A29=5,A29=1,A18=6),COLUMN(A7)&gt;2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>A18=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>A18=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>WEEKDAY(A$6,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>WEEKDAY(A$6,2)=7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>A18=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>A18=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(A7&gt;0,AND(A18&lt;&gt;5,A18&lt;&gt;1,COLUMN(A7)&gt;2))</formula>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>AND(A7&gt;0,AND(A29&lt;&gt;5,A29&lt;&gt;1,COLUMN(A7)&gt;2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:XFD34">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/Planning.xlsx
+++ b/templates/Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GPM\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A0CE0F-3B05-4D4C-9478-9FD0A3804668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A4FAA8-3D77-4D6A-9D5A-585EDE07AE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32265" yWindow="-3120" windowWidth="22755" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5460" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -215,432 +215,144 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF8064A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF8064A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF8064A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF8064A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
@@ -950,7 +662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1067,27 +781,27 @@
       <c r="J41" s="11"/>
       <c r="K41" s="14"/>
       <c r="L41">
-        <f>COUNTIF(17:17,1)+COUNTIF(17:17,6)++COUNTIF(17:17,5)</f>
+        <f>COUNTIF(28:28,1)+COUNTIF(17:17,6)++COUNTIF(17:17,5)</f>
         <v>0</v>
       </c>
       <c r="M41">
-        <f>SUMIF(17:17,1,6:6)+SUMIF(17:17,6,6:6)+SUMIF(17:17,5,6:6)</f>
+        <f>SUMIF(28:28,1,6:6)+SUMIF(17:17,6,6:6)+SUMIF(17:17,5,6:6)</f>
         <v>0</v>
       </c>
       <c r="N41">
-        <f>COUNTIF(17:17,2)</f>
+        <f>COUNTIF(28:28,2)</f>
         <v>0</v>
       </c>
       <c r="O41">
-        <f>SUMIF(17:17,2,6:6)</f>
+        <f>SUMIF(28:28,2,6:6)</f>
         <v>0</v>
       </c>
       <c r="P41">
-        <f>SUMIFS(17:17,17:17,1,$4:$4,6)</f>
+        <f>SUMIFS(28:28,28:28,1,$4:$4,6)</f>
         <v>0</v>
       </c>
       <c r="Q41">
-        <f>SUMIFS(6:6,17:17,1,$4:$4,6)</f>
+        <f>SUMIFS(6:6,28:28,1,$4:$4,6)</f>
         <v>0</v>
       </c>
       <c r="R41" s="13" t="s">
@@ -1128,67 +842,67 @@
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C57" t="str">
-        <f>CONCATENATE("INSERT INTO `planning_users`(`id_user`, `dateplanned`, `quantity`, `type`) VALUES ('",$J42,"', '",TEXT(C$6,"yyyy-mm-dd"),"', '",C7,"', '",C29,"') ON DUPLICATE KEY UPDATE quantity='",C7,"', type='",C29,"';"," UPDATE planning_modif set id_validator=-1 where id_user='",$J42,"' AND date(datemodif)='",TEXT(C$6,"yyyy-mm-dd"),"';")</f>
+        <f>CONCATENATE("INSERT INTO `planning_users`(`id_user`, `dateplanned`, `quantity`, `type`) VALUES ('",$I42,"', '",TEXT(C$6,"yyyy-mm-dd"),"', '",C7,"', '",C29,"') ON DUPLICATE KEY UPDATE quantity='",C7,"', type='",C29,"';"," UPDATE planning_modif set id_validator=-1 where id_user='",$I42,"' AND date(datemodif)='",TEXT(C$6,"yyyy-mm-dd"),"';")</f>
         <v>INSERT INTO `planning_users`(`id_user`, `dateplanned`, `quantity`, `type`) VALUES ('', '1900-01-00', '', '') ON DUPLICATE KEY UPDATE quantity='', type=''; UPDATE planning_modif set id_validator=-1 where id_user='' AND date(datemodif)='1900-01-00';</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>AND(A7=0,OR(A29=5,A29=1,A18=6),COLUMN(A7)&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>A18=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>A18=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>WEEKDAY(A$6,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>WEEKDAY(A$6,2)=7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="9" priority="13">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>A18=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="8" priority="14">
+    <cfRule type="expression" dxfId="7" priority="14">
       <formula>A18=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>AND(A7&gt;0,AND(A29&lt;&gt;5,A29&lt;&gt;1,COLUMN(A7)&gt;2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:XFD34">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/templates/Planning.xlsx
+++ b/templates/Planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GPM\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A4FAA8-3D77-4D6A-9D5A-585EDE07AE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB86E55E-D5C9-4484-8027-B59EB2829177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-5460" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>PLANNING en type de journée</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>PLANNING en heures ou journées</t>
+  </si>
+  <si>
+    <t>Week</t>
   </si>
 </sst>
 </file>
@@ -89,17 +92,11 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -172,50 +169,52 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="30">
     <dxf>
       <font>
         <color theme="0"/>
@@ -327,6 +326,170 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF8064A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -660,126 +823,680 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:S57"/>
+  <dimension ref="A1:NW57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="387" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E2" s="1"/>
+    <row r="1" spans="1:387" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
+    <row r="2" spans="1:387" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="15">
+        <f>WEEKNUM(C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15">
+        <f>WEEKNUM(J6)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15">
+        <f>WEEKNUM(Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15">
+        <f>WEEKNUM(X6)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15">
+        <f>WEEKNUM(AE6)</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15">
+        <f>WEEKNUM(AL6)</f>
+        <v>0</v>
+      </c>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15">
+        <f>WEEKNUM(AS6)</f>
+        <v>0</v>
+      </c>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15">
+        <f>WEEKNUM(AZ6)</f>
+        <v>0</v>
+      </c>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15">
+        <f>WEEKNUM(BG6)</f>
+        <v>0</v>
+      </c>
+      <c r="BH2" s="15"/>
+      <c r="BI2" s="15"/>
+      <c r="BJ2" s="15"/>
+      <c r="BK2" s="15"/>
+      <c r="BL2" s="15"/>
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15">
+        <f>WEEKNUM(BN6)</f>
+        <v>0</v>
+      </c>
+      <c r="BO2" s="15"/>
+      <c r="BP2" s="15"/>
+      <c r="BQ2" s="15"/>
+      <c r="BR2" s="15"/>
+      <c r="BS2" s="15"/>
+      <c r="BT2" s="15"/>
+      <c r="BU2" s="15">
+        <f>WEEKNUM(BU6)</f>
+        <v>0</v>
+      </c>
+      <c r="BV2" s="15"/>
+      <c r="BW2" s="15"/>
+      <c r="BX2" s="15"/>
+      <c r="BY2" s="15"/>
+      <c r="BZ2" s="15"/>
+      <c r="CA2" s="15"/>
+      <c r="CB2" s="15">
+        <f>WEEKNUM(CB6)</f>
+        <v>0</v>
+      </c>
+      <c r="CC2" s="15"/>
+      <c r="CD2" s="15"/>
+      <c r="CE2" s="15"/>
+      <c r="CF2" s="15"/>
+      <c r="CG2" s="15"/>
+      <c r="CH2" s="15"/>
+      <c r="CI2" s="15">
+        <f>WEEKNUM(CI6)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="15"/>
+      <c r="CK2" s="15"/>
+      <c r="CL2" s="15"/>
+      <c r="CM2" s="15"/>
+      <c r="CN2" s="15"/>
+      <c r="CO2" s="15"/>
+      <c r="CP2" s="15">
+        <f>WEEKNUM(CP6)</f>
+        <v>0</v>
+      </c>
+      <c r="CQ2" s="15"/>
+      <c r="CR2" s="15"/>
+      <c r="CS2" s="15"/>
+      <c r="CT2" s="15"/>
+      <c r="CU2" s="15"/>
+      <c r="CV2" s="15"/>
+      <c r="CW2" s="15">
+        <f>WEEKNUM(CW6)</f>
+        <v>0</v>
+      </c>
+      <c r="CX2" s="15"/>
+      <c r="CY2" s="15"/>
+      <c r="CZ2" s="15"/>
+      <c r="DA2" s="15"/>
+      <c r="DB2" s="15"/>
+      <c r="DC2" s="15"/>
+      <c r="DD2" s="15">
+        <f>WEEKNUM(DD6)</f>
+        <v>0</v>
+      </c>
+      <c r="DE2" s="15"/>
+      <c r="DF2" s="15"/>
+      <c r="DG2" s="15"/>
+      <c r="DH2" s="15"/>
+      <c r="DI2" s="15"/>
+      <c r="DJ2" s="15"/>
+      <c r="DK2" s="15">
+        <f>WEEKNUM(DK6)</f>
+        <v>0</v>
+      </c>
+      <c r="DL2" s="15"/>
+      <c r="DM2" s="15"/>
+      <c r="DN2" s="15"/>
+      <c r="DO2" s="15"/>
+      <c r="DP2" s="15"/>
+      <c r="DQ2" s="15"/>
+      <c r="DR2" s="15">
+        <f>WEEKNUM(DR6)</f>
+        <v>0</v>
+      </c>
+      <c r="DS2" s="15"/>
+      <c r="DT2" s="15"/>
+      <c r="DU2" s="15"/>
+      <c r="DV2" s="15"/>
+      <c r="DW2" s="15"/>
+      <c r="DX2" s="15"/>
+      <c r="DY2" s="15">
+        <f>WEEKNUM(DY6)</f>
+        <v>0</v>
+      </c>
+      <c r="DZ2" s="15"/>
+      <c r="EA2" s="15"/>
+      <c r="EB2" s="15"/>
+      <c r="EC2" s="15"/>
+      <c r="ED2" s="15"/>
+      <c r="EE2" s="15"/>
+      <c r="EF2" s="15">
+        <f>WEEKNUM(EF6)</f>
+        <v>0</v>
+      </c>
+      <c r="EG2" s="15"/>
+      <c r="EH2" s="15"/>
+      <c r="EI2" s="15"/>
+      <c r="EJ2" s="15"/>
+      <c r="EK2" s="15"/>
+      <c r="EL2" s="15"/>
+      <c r="EM2" s="15">
+        <f>WEEKNUM(EM6)</f>
+        <v>0</v>
+      </c>
+      <c r="EN2" s="15"/>
+      <c r="EO2" s="15"/>
+      <c r="EP2" s="15"/>
+      <c r="EQ2" s="15"/>
+      <c r="ER2" s="15"/>
+      <c r="ES2" s="15"/>
+      <c r="ET2" s="15">
+        <f>WEEKNUM(ET6)</f>
+        <v>0</v>
+      </c>
+      <c r="EU2" s="15"/>
+      <c r="EV2" s="15"/>
+      <c r="EW2" s="15"/>
+      <c r="EX2" s="15"/>
+      <c r="EY2" s="15"/>
+      <c r="EZ2" s="15"/>
+      <c r="FA2" s="15">
+        <f>WEEKNUM(FA6)</f>
+        <v>0</v>
+      </c>
+      <c r="FB2" s="15"/>
+      <c r="FC2" s="15"/>
+      <c r="FD2" s="15"/>
+      <c r="FE2" s="15"/>
+      <c r="FF2" s="15"/>
+      <c r="FG2" s="15"/>
+      <c r="FH2" s="15">
+        <f>WEEKNUM(FH6)</f>
+        <v>0</v>
+      </c>
+      <c r="FI2" s="15"/>
+      <c r="FJ2" s="15"/>
+      <c r="FK2" s="15"/>
+      <c r="FL2" s="15"/>
+      <c r="FM2" s="15"/>
+      <c r="FN2" s="15"/>
+      <c r="FO2" s="15">
+        <f>WEEKNUM(FO6)</f>
+        <v>0</v>
+      </c>
+      <c r="FP2" s="15"/>
+      <c r="FQ2" s="15"/>
+      <c r="FR2" s="15"/>
+      <c r="FS2" s="15"/>
+      <c r="FT2" s="15"/>
+      <c r="FU2" s="15"/>
+      <c r="FV2" s="15">
+        <f>WEEKNUM(FV6)</f>
+        <v>0</v>
+      </c>
+      <c r="FW2" s="15"/>
+      <c r="FX2" s="15"/>
+      <c r="FY2" s="15"/>
+      <c r="FZ2" s="15"/>
+      <c r="GA2" s="15"/>
+      <c r="GB2" s="15"/>
+      <c r="GC2" s="15">
+        <f>WEEKNUM(GC6)</f>
+        <v>0</v>
+      </c>
+      <c r="GD2" s="15"/>
+      <c r="GE2" s="15"/>
+      <c r="GF2" s="15"/>
+      <c r="GG2" s="15"/>
+      <c r="GH2" s="15"/>
+      <c r="GI2" s="15"/>
+      <c r="GJ2" s="15">
+        <f>WEEKNUM(GJ6)</f>
+        <v>0</v>
+      </c>
+      <c r="GK2" s="15"/>
+      <c r="GL2" s="15"/>
+      <c r="GM2" s="15"/>
+      <c r="GN2" s="15"/>
+      <c r="GO2" s="15"/>
+      <c r="GP2" s="15"/>
+      <c r="GQ2" s="15">
+        <f>WEEKNUM(GQ6)</f>
+        <v>0</v>
+      </c>
+      <c r="GR2" s="15"/>
+      <c r="GS2" s="15"/>
+      <c r="GT2" s="15"/>
+      <c r="GU2" s="15"/>
+      <c r="GV2" s="15"/>
+      <c r="GW2" s="15"/>
+      <c r="GX2" s="15">
+        <f>WEEKNUM(GX6)</f>
+        <v>0</v>
+      </c>
+      <c r="GY2" s="15"/>
+      <c r="GZ2" s="15"/>
+      <c r="HA2" s="15"/>
+      <c r="HB2" s="15"/>
+      <c r="HC2" s="15"/>
+      <c r="HD2" s="15"/>
+      <c r="HE2" s="15">
+        <f>WEEKNUM(HE6)</f>
+        <v>0</v>
+      </c>
+      <c r="HF2" s="15"/>
+      <c r="HG2" s="15"/>
+      <c r="HH2" s="15"/>
+      <c r="HI2" s="15"/>
+      <c r="HJ2" s="15"/>
+      <c r="HK2" s="15"/>
+      <c r="HL2" s="15">
+        <f>WEEKNUM(HL6)</f>
+        <v>0</v>
+      </c>
+      <c r="HM2" s="15"/>
+      <c r="HN2" s="15"/>
+      <c r="HO2" s="15"/>
+      <c r="HP2" s="15"/>
+      <c r="HQ2" s="15"/>
+      <c r="HR2" s="15"/>
+      <c r="HS2" s="15">
+        <f>WEEKNUM(HS6)</f>
+        <v>0</v>
+      </c>
+      <c r="HT2" s="15"/>
+      <c r="HU2" s="15"/>
+      <c r="HV2" s="15"/>
+      <c r="HW2" s="15"/>
+      <c r="HX2" s="15"/>
+      <c r="HY2" s="15"/>
+      <c r="HZ2" s="15">
+        <f>WEEKNUM(HZ6)</f>
+        <v>0</v>
+      </c>
+      <c r="IA2" s="15"/>
+      <c r="IB2" s="15"/>
+      <c r="IC2" s="15"/>
+      <c r="ID2" s="15"/>
+      <c r="IE2" s="15"/>
+      <c r="IF2" s="15"/>
+      <c r="IG2" s="15">
+        <f>WEEKNUM(IG6)</f>
+        <v>0</v>
+      </c>
+      <c r="IH2" s="15"/>
+      <c r="II2" s="15"/>
+      <c r="IJ2" s="15"/>
+      <c r="IK2" s="15"/>
+      <c r="IL2" s="15"/>
+      <c r="IM2" s="15"/>
+      <c r="IN2" s="15">
+        <f>WEEKNUM(IN6)</f>
+        <v>0</v>
+      </c>
+      <c r="IO2" s="15"/>
+      <c r="IP2" s="15"/>
+      <c r="IQ2" s="15"/>
+      <c r="IR2" s="15"/>
+      <c r="IS2" s="15"/>
+      <c r="IT2" s="15"/>
+      <c r="IU2" s="15">
+        <f>WEEKNUM(IU6)</f>
+        <v>0</v>
+      </c>
+      <c r="IV2" s="15"/>
+      <c r="IW2" s="15"/>
+      <c r="IX2" s="15"/>
+      <c r="IY2" s="15"/>
+      <c r="IZ2" s="15"/>
+      <c r="JA2" s="15"/>
+      <c r="JB2" s="15">
+        <f>WEEKNUM(JB6)</f>
+        <v>0</v>
+      </c>
+      <c r="JC2" s="15"/>
+      <c r="JD2" s="15"/>
+      <c r="JE2" s="15"/>
+      <c r="JF2" s="15"/>
+      <c r="JG2" s="15"/>
+      <c r="JH2" s="15"/>
+      <c r="JI2" s="15">
+        <f>WEEKNUM(JI6)</f>
+        <v>0</v>
+      </c>
+      <c r="JJ2" s="15"/>
+      <c r="JK2" s="15"/>
+      <c r="JL2" s="15"/>
+      <c r="JM2" s="15"/>
+      <c r="JN2" s="15"/>
+      <c r="JO2" s="15"/>
+      <c r="JP2" s="15">
+        <f>WEEKNUM(JP6)</f>
+        <v>0</v>
+      </c>
+      <c r="JQ2" s="15"/>
+      <c r="JR2" s="15"/>
+      <c r="JS2" s="15"/>
+      <c r="JT2" s="15"/>
+      <c r="JU2" s="15"/>
+      <c r="JV2" s="15"/>
+      <c r="JW2" s="15">
+        <f>WEEKNUM(JW6)</f>
+        <v>0</v>
+      </c>
+      <c r="JX2" s="15"/>
+      <c r="JY2" s="15"/>
+      <c r="JZ2" s="15"/>
+      <c r="KA2" s="15"/>
+      <c r="KB2" s="15"/>
+      <c r="KC2" s="15"/>
+      <c r="KD2" s="15">
+        <f>WEEKNUM(KD6)</f>
+        <v>0</v>
+      </c>
+      <c r="KE2" s="15"/>
+      <c r="KF2" s="15"/>
+      <c r="KG2" s="15"/>
+      <c r="KH2" s="15"/>
+      <c r="KI2" s="15"/>
+      <c r="KJ2" s="15"/>
+      <c r="KK2" s="15">
+        <f>WEEKNUM(KK6)</f>
+        <v>0</v>
+      </c>
+      <c r="KL2" s="15"/>
+      <c r="KM2" s="15"/>
+      <c r="KN2" s="15"/>
+      <c r="KO2" s="15"/>
+      <c r="KP2" s="15"/>
+      <c r="KQ2" s="15"/>
+      <c r="KR2" s="15">
+        <f>WEEKNUM(KR6)</f>
+        <v>0</v>
+      </c>
+      <c r="KS2" s="15"/>
+      <c r="KT2" s="15"/>
+      <c r="KU2" s="15"/>
+      <c r="KV2" s="15"/>
+      <c r="KW2" s="15"/>
+      <c r="KX2" s="15"/>
+      <c r="KY2" s="15">
+        <f>WEEKNUM(KY6)</f>
+        <v>0</v>
+      </c>
+      <c r="KZ2" s="15"/>
+      <c r="LA2" s="15"/>
+      <c r="LB2" s="15"/>
+      <c r="LC2" s="15"/>
+      <c r="LD2" s="15"/>
+      <c r="LE2" s="15"/>
+      <c r="LF2" s="15">
+        <f>WEEKNUM(LF6)</f>
+        <v>0</v>
+      </c>
+      <c r="LG2" s="15"/>
+      <c r="LH2" s="15"/>
+      <c r="LI2" s="15"/>
+      <c r="LJ2" s="15"/>
+      <c r="LK2" s="15"/>
+      <c r="LL2" s="15"/>
+      <c r="LM2" s="15">
+        <f>WEEKNUM(LM6)</f>
+        <v>0</v>
+      </c>
+      <c r="LN2" s="15"/>
+      <c r="LO2" s="15"/>
+      <c r="LP2" s="15"/>
+      <c r="LQ2" s="15"/>
+      <c r="LR2" s="15"/>
+      <c r="LS2" s="15"/>
+      <c r="LT2" s="15">
+        <f>WEEKNUM(LT6)</f>
+        <v>0</v>
+      </c>
+      <c r="LU2" s="15"/>
+      <c r="LV2" s="15"/>
+      <c r="LW2" s="15"/>
+      <c r="LX2" s="15"/>
+      <c r="LY2" s="15"/>
+      <c r="LZ2" s="15"/>
+      <c r="MA2" s="15">
+        <f>WEEKNUM(MA6)</f>
+        <v>0</v>
+      </c>
+      <c r="MB2" s="15"/>
+      <c r="MC2" s="15"/>
+      <c r="MD2" s="15"/>
+      <c r="ME2" s="15"/>
+      <c r="MF2" s="15"/>
+      <c r="MG2" s="15"/>
+      <c r="MH2" s="15">
+        <f>WEEKNUM(MH6)</f>
+        <v>0</v>
+      </c>
+      <c r="MI2" s="15"/>
+      <c r="MJ2" s="15"/>
+      <c r="MK2" s="15"/>
+      <c r="ML2" s="15"/>
+      <c r="MM2" s="15"/>
+      <c r="MN2" s="15"/>
+      <c r="MO2" s="15">
+        <f>WEEKNUM(MO6)</f>
+        <v>0</v>
+      </c>
+      <c r="MP2" s="15"/>
+      <c r="MQ2" s="15"/>
+      <c r="MR2" s="15"/>
+      <c r="MS2" s="15"/>
+      <c r="MT2" s="15"/>
+      <c r="MU2" s="15"/>
+      <c r="MV2" s="15">
+        <f>WEEKNUM(MV6)</f>
+        <v>0</v>
+      </c>
+      <c r="MW2" s="15"/>
+      <c r="MX2" s="15"/>
+      <c r="MY2" s="15"/>
+      <c r="MZ2" s="15"/>
+      <c r="NA2" s="15"/>
+      <c r="NB2" s="15"/>
+      <c r="NC2" s="15">
+        <f>WEEKNUM(NC6)</f>
+        <v>0</v>
+      </c>
+      <c r="ND2" s="15"/>
+      <c r="NE2" s="15"/>
+      <c r="NF2" s="15"/>
+      <c r="NG2" s="15"/>
+      <c r="NH2" s="15"/>
+      <c r="NI2" s="15"/>
+      <c r="NJ2" s="15">
+        <f>WEEKNUM(NJ6)</f>
+        <v>0</v>
+      </c>
+      <c r="NK2" s="15"/>
+      <c r="NL2" s="15"/>
+      <c r="NM2" s="15"/>
+      <c r="NN2" s="15"/>
+      <c r="NO2" s="15"/>
+      <c r="NP2" s="15"/>
+      <c r="NQ2" s="15">
+        <f>WEEKNUM(NQ6)</f>
+        <v>0</v>
+      </c>
+      <c r="NR2" s="15"/>
+      <c r="NS2" s="15"/>
+      <c r="NT2" s="15"/>
+      <c r="NU2" s="15"/>
+      <c r="NV2" s="15"/>
+      <c r="NW2" s="15"/>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:1" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+    <row r="3" spans="1:387" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:387" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:387" s="13" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:387" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:1" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:19" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
+    <row r="29" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:19" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M39" s="9"/>
-      <c r="N39" s="10" t="s">
+      <c r="M39" s="6"/>
+      <c r="N39" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O39" s="9"/>
-      <c r="P39" s="10" t="s">
+      <c r="O39" s="6"/>
+      <c r="P39" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" s="9"/>
+      <c r="Q39" s="6"/>
     </row>
-    <row r="40" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="L40" s="15" t="s">
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="L40" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M40" s="15" t="s">
+      <c r="M40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N40" s="15" t="s">
+      <c r="N40" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O40" s="15" t="s">
+      <c r="O40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P40" s="15" t="s">
+      <c r="P40" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q40" s="15" t="s">
+      <c r="Q40" s="12" t="s">
         <v>10</v>
       </c>
       <c r="R40"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J41" s="11"/>
-      <c r="K41" s="14"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="11"/>
       <c r="L41">
         <f>COUNTIF(28:28,1)+COUNTIF(17:17,6)++COUNTIF(17:17,5)</f>
         <v>0</v>
@@ -804,39 +1521,39 @@
         <f>SUMIFS(6:6,28:28,1,$4:$4,6)</f>
         <v>0</v>
       </c>
-      <c r="R41" s="13" t="s">
+      <c r="R41" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="S41" s="12" t="s">
+      <c r="S41" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K42" s="14"/>
+      <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K43" s="14"/>
+      <c r="K43" s="11"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K44" s="14"/>
+      <c r="K44" s="11"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K45" s="14"/>
+      <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K46" s="14"/>
+      <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K47" s="14"/>
+      <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K48" s="14"/>
+      <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K49" s="14"/>
+      <c r="K49" s="11"/>
     </row>
     <row r="56" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -848,61 +1565,119 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="55">
+    <mergeCell ref="CB2:CH2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="X2:AD2"/>
+    <mergeCell ref="AE2:AK2"/>
+    <mergeCell ref="AL2:AR2"/>
+    <mergeCell ref="AS2:AY2"/>
+    <mergeCell ref="AZ2:BF2"/>
+    <mergeCell ref="BG2:BM2"/>
+    <mergeCell ref="BN2:BT2"/>
+    <mergeCell ref="BU2:CA2"/>
+    <mergeCell ref="FH2:FN2"/>
+    <mergeCell ref="CI2:CO2"/>
+    <mergeCell ref="CP2:CV2"/>
+    <mergeCell ref="CW2:DC2"/>
+    <mergeCell ref="DD2:DJ2"/>
+    <mergeCell ref="DK2:DQ2"/>
+    <mergeCell ref="DR2:DX2"/>
+    <mergeCell ref="DY2:EE2"/>
+    <mergeCell ref="EF2:EL2"/>
+    <mergeCell ref="EM2:ES2"/>
+    <mergeCell ref="ET2:EZ2"/>
+    <mergeCell ref="FA2:FG2"/>
+    <mergeCell ref="IN2:IT2"/>
+    <mergeCell ref="FO2:FU2"/>
+    <mergeCell ref="FV2:GB2"/>
+    <mergeCell ref="GC2:GI2"/>
+    <mergeCell ref="GJ2:GP2"/>
+    <mergeCell ref="GQ2:GW2"/>
+    <mergeCell ref="GX2:HD2"/>
+    <mergeCell ref="HE2:HK2"/>
+    <mergeCell ref="HL2:HR2"/>
+    <mergeCell ref="HS2:HY2"/>
+    <mergeCell ref="HZ2:IF2"/>
+    <mergeCell ref="IG2:IM2"/>
+    <mergeCell ref="LT2:LZ2"/>
+    <mergeCell ref="IU2:JA2"/>
+    <mergeCell ref="JB2:JH2"/>
+    <mergeCell ref="JI2:JO2"/>
+    <mergeCell ref="JP2:JV2"/>
+    <mergeCell ref="JW2:KC2"/>
+    <mergeCell ref="KD2:KJ2"/>
+    <mergeCell ref="KK2:KQ2"/>
+    <mergeCell ref="KR2:KX2"/>
+    <mergeCell ref="KY2:LE2"/>
+    <mergeCell ref="LF2:LL2"/>
+    <mergeCell ref="LM2:LS2"/>
+    <mergeCell ref="NQ2:NW2"/>
+    <mergeCell ref="MA2:MG2"/>
+    <mergeCell ref="MH2:MN2"/>
+    <mergeCell ref="MO2:MU2"/>
+    <mergeCell ref="MV2:NB2"/>
+    <mergeCell ref="NC2:NI2"/>
+    <mergeCell ref="NJ2:NP2"/>
+  </mergeCells>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>AND(A7=0,OR(A29=5,A29=1,A18=6),COLUMN(A7)&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9">
-      <formula>A18=2</formula>
+    <cfRule type="expression" dxfId="28" priority="10">
+      <formula>A29=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>A18=1</formula>
+    <cfRule type="expression" dxfId="27" priority="11">
+      <formula>A18&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="10" priority="11">
+  <conditionalFormatting sqref="A7:XFD27">
+    <cfRule type="expression" dxfId="26" priority="12">
+      <formula>A7&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="14">
+      <formula>WEEKDAY(A$6,2)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="13">
       <formula>WEEKDAY(A$6,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>WEEKDAY(A$6,2)=7</formula>
+    <cfRule type="expression" dxfId="23" priority="16">
+      <formula>A29=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="8" priority="13">
-      <formula>A18=5</formula>
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>A29=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="7" priority="14">
-      <formula>A18=3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="22" priority="9">
       <formula>AND(A7&gt;0,AND(A29&lt;&gt;5,A29&lt;&gt;1,COLUMN(A7)&gt;2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:XFD34">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/templates/Planning.xlsx
+++ b/templates/Planning.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GPM\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB86E55E-D5C9-4484-8027-B59EB2829177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47590ED-CA00-41DC-B9D2-75805A98F17B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5460" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -214,7 +206,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="15">
     <dxf>
       <font>
         <color theme="0"/>
@@ -283,94 +275,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF8064A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color auto="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -378,72 +282,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -825,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:NW57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,11 +1336,11 @@
       <c r="J41" s="8"/>
       <c r="K41" s="11"/>
       <c r="L41">
-        <f>COUNTIF(28:28,1)+COUNTIF(17:17,6)++COUNTIF(17:17,5)</f>
+        <f>COUNTIF(28:28,1)+COUNTIF(17:17,6)+COUNTIF(17:17,5)</f>
         <v>0</v>
       </c>
       <c r="M41">
-        <f>SUMIF(28:28,1,6:6)+SUMIF(17:17,6,6:6)+SUMIF(17:17,5,6:6)</f>
+        <f>SUMIF(28:28,1,6:6)+SUMIF(28:28,6,6:6)+SUMIF(28:28,5,6:6)</f>
         <v>0</v>
       </c>
       <c r="N41">
@@ -1566,6 +1404,49 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="55">
+    <mergeCell ref="NQ2:NW2"/>
+    <mergeCell ref="MA2:MG2"/>
+    <mergeCell ref="MH2:MN2"/>
+    <mergeCell ref="MO2:MU2"/>
+    <mergeCell ref="MV2:NB2"/>
+    <mergeCell ref="NC2:NI2"/>
+    <mergeCell ref="NJ2:NP2"/>
+    <mergeCell ref="LT2:LZ2"/>
+    <mergeCell ref="IU2:JA2"/>
+    <mergeCell ref="JB2:JH2"/>
+    <mergeCell ref="JI2:JO2"/>
+    <mergeCell ref="JP2:JV2"/>
+    <mergeCell ref="JW2:KC2"/>
+    <mergeCell ref="KD2:KJ2"/>
+    <mergeCell ref="KK2:KQ2"/>
+    <mergeCell ref="KR2:KX2"/>
+    <mergeCell ref="KY2:LE2"/>
+    <mergeCell ref="LF2:LL2"/>
+    <mergeCell ref="LM2:LS2"/>
+    <mergeCell ref="IN2:IT2"/>
+    <mergeCell ref="FO2:FU2"/>
+    <mergeCell ref="FV2:GB2"/>
+    <mergeCell ref="GC2:GI2"/>
+    <mergeCell ref="GJ2:GP2"/>
+    <mergeCell ref="GQ2:GW2"/>
+    <mergeCell ref="GX2:HD2"/>
+    <mergeCell ref="HE2:HK2"/>
+    <mergeCell ref="HL2:HR2"/>
+    <mergeCell ref="HS2:HY2"/>
+    <mergeCell ref="HZ2:IF2"/>
+    <mergeCell ref="IG2:IM2"/>
+    <mergeCell ref="FH2:FN2"/>
+    <mergeCell ref="CI2:CO2"/>
+    <mergeCell ref="CP2:CV2"/>
+    <mergeCell ref="CW2:DC2"/>
+    <mergeCell ref="DD2:DJ2"/>
+    <mergeCell ref="DK2:DQ2"/>
+    <mergeCell ref="DR2:DX2"/>
+    <mergeCell ref="DY2:EE2"/>
+    <mergeCell ref="EF2:EL2"/>
+    <mergeCell ref="EM2:ES2"/>
+    <mergeCell ref="ET2:EZ2"/>
+    <mergeCell ref="FA2:FG2"/>
     <mergeCell ref="CB2:CH2"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="J2:P2"/>
@@ -1578,106 +1459,63 @@
     <mergeCell ref="BG2:BM2"/>
     <mergeCell ref="BN2:BT2"/>
     <mergeCell ref="BU2:CA2"/>
-    <mergeCell ref="FH2:FN2"/>
-    <mergeCell ref="CI2:CO2"/>
-    <mergeCell ref="CP2:CV2"/>
-    <mergeCell ref="CW2:DC2"/>
-    <mergeCell ref="DD2:DJ2"/>
-    <mergeCell ref="DK2:DQ2"/>
-    <mergeCell ref="DR2:DX2"/>
-    <mergeCell ref="DY2:EE2"/>
-    <mergeCell ref="EF2:EL2"/>
-    <mergeCell ref="EM2:ES2"/>
-    <mergeCell ref="ET2:EZ2"/>
-    <mergeCell ref="FA2:FG2"/>
-    <mergeCell ref="IN2:IT2"/>
-    <mergeCell ref="FO2:FU2"/>
-    <mergeCell ref="FV2:GB2"/>
-    <mergeCell ref="GC2:GI2"/>
-    <mergeCell ref="GJ2:GP2"/>
-    <mergeCell ref="GQ2:GW2"/>
-    <mergeCell ref="GX2:HD2"/>
-    <mergeCell ref="HE2:HK2"/>
-    <mergeCell ref="HL2:HR2"/>
-    <mergeCell ref="HS2:HY2"/>
-    <mergeCell ref="HZ2:IF2"/>
-    <mergeCell ref="IG2:IM2"/>
-    <mergeCell ref="LT2:LZ2"/>
-    <mergeCell ref="IU2:JA2"/>
-    <mergeCell ref="JB2:JH2"/>
-    <mergeCell ref="JI2:JO2"/>
-    <mergeCell ref="JP2:JV2"/>
-    <mergeCell ref="JW2:KC2"/>
-    <mergeCell ref="KD2:KJ2"/>
-    <mergeCell ref="KK2:KQ2"/>
-    <mergeCell ref="KR2:KX2"/>
-    <mergeCell ref="KY2:LE2"/>
-    <mergeCell ref="LF2:LL2"/>
-    <mergeCell ref="LM2:LS2"/>
-    <mergeCell ref="NQ2:NW2"/>
-    <mergeCell ref="MA2:MG2"/>
-    <mergeCell ref="MH2:MN2"/>
-    <mergeCell ref="MO2:MU2"/>
-    <mergeCell ref="MV2:NB2"/>
-    <mergeCell ref="NC2:NI2"/>
-    <mergeCell ref="NJ2:NP2"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(A7=0,OR(A29=5,A29=1,A18=6),COLUMN(A7)&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="10">
+    <cfRule type="expression" dxfId="13" priority="10">
       <formula>A29=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="27" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>A18&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD27">
-    <cfRule type="expression" dxfId="26" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>A7&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>WEEKDAY(A$6,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="13">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>WEEKDAY(A$6,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="23" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>A29=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>A29=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="22" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>AND(A7&gt;0,AND(A29&lt;&gt;5,A29&lt;&gt;1,COLUMN(A7)&gt;2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:XFD34">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/templates/Planning.xlsx
+++ b/templates/Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GPM\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47590ED-CA00-41DC-B9D2-75805A98F17B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650A1455-B5A7-41D7-9589-91DD15F221C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -258,6 +265,58 @@
       <fill>
         <patternFill>
           <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF8064A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -275,6 +334,118 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF8064A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -286,14 +457,44 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF8064A2"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -328,36 +529,6 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -663,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:NW57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,13 +1575,42 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="55">
-    <mergeCell ref="NQ2:NW2"/>
-    <mergeCell ref="MA2:MG2"/>
-    <mergeCell ref="MH2:MN2"/>
-    <mergeCell ref="MO2:MU2"/>
-    <mergeCell ref="MV2:NB2"/>
-    <mergeCell ref="NC2:NI2"/>
-    <mergeCell ref="NJ2:NP2"/>
+    <mergeCell ref="CB2:CH2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="X2:AD2"/>
+    <mergeCell ref="AE2:AK2"/>
+    <mergeCell ref="AL2:AR2"/>
+    <mergeCell ref="AS2:AY2"/>
+    <mergeCell ref="AZ2:BF2"/>
+    <mergeCell ref="BG2:BM2"/>
+    <mergeCell ref="BN2:BT2"/>
+    <mergeCell ref="BU2:CA2"/>
+    <mergeCell ref="FH2:FN2"/>
+    <mergeCell ref="CI2:CO2"/>
+    <mergeCell ref="CP2:CV2"/>
+    <mergeCell ref="CW2:DC2"/>
+    <mergeCell ref="DD2:DJ2"/>
+    <mergeCell ref="DK2:DQ2"/>
+    <mergeCell ref="DR2:DX2"/>
+    <mergeCell ref="DY2:EE2"/>
+    <mergeCell ref="EF2:EL2"/>
+    <mergeCell ref="EM2:ES2"/>
+    <mergeCell ref="ET2:EZ2"/>
+    <mergeCell ref="FA2:FG2"/>
+    <mergeCell ref="IN2:IT2"/>
+    <mergeCell ref="FO2:FU2"/>
+    <mergeCell ref="FV2:GB2"/>
+    <mergeCell ref="GC2:GI2"/>
+    <mergeCell ref="GJ2:GP2"/>
+    <mergeCell ref="GQ2:GW2"/>
+    <mergeCell ref="GX2:HD2"/>
+    <mergeCell ref="HE2:HK2"/>
+    <mergeCell ref="HL2:HR2"/>
+    <mergeCell ref="HS2:HY2"/>
+    <mergeCell ref="HZ2:IF2"/>
+    <mergeCell ref="IG2:IM2"/>
     <mergeCell ref="LT2:LZ2"/>
     <mergeCell ref="IU2:JA2"/>
     <mergeCell ref="JB2:JH2"/>
@@ -1423,100 +1623,69 @@
     <mergeCell ref="KY2:LE2"/>
     <mergeCell ref="LF2:LL2"/>
     <mergeCell ref="LM2:LS2"/>
-    <mergeCell ref="IN2:IT2"/>
-    <mergeCell ref="FO2:FU2"/>
-    <mergeCell ref="FV2:GB2"/>
-    <mergeCell ref="GC2:GI2"/>
-    <mergeCell ref="GJ2:GP2"/>
-    <mergeCell ref="GQ2:GW2"/>
-    <mergeCell ref="GX2:HD2"/>
-    <mergeCell ref="HE2:HK2"/>
-    <mergeCell ref="HL2:HR2"/>
-    <mergeCell ref="HS2:HY2"/>
-    <mergeCell ref="HZ2:IF2"/>
-    <mergeCell ref="IG2:IM2"/>
-    <mergeCell ref="FH2:FN2"/>
-    <mergeCell ref="CI2:CO2"/>
-    <mergeCell ref="CP2:CV2"/>
-    <mergeCell ref="CW2:DC2"/>
-    <mergeCell ref="DD2:DJ2"/>
-    <mergeCell ref="DK2:DQ2"/>
-    <mergeCell ref="DR2:DX2"/>
-    <mergeCell ref="DY2:EE2"/>
-    <mergeCell ref="EF2:EL2"/>
-    <mergeCell ref="EM2:ES2"/>
-    <mergeCell ref="ET2:EZ2"/>
-    <mergeCell ref="FA2:FG2"/>
-    <mergeCell ref="CB2:CH2"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="X2:AD2"/>
-    <mergeCell ref="AE2:AK2"/>
-    <mergeCell ref="AL2:AR2"/>
-    <mergeCell ref="AS2:AY2"/>
-    <mergeCell ref="AZ2:BF2"/>
-    <mergeCell ref="BG2:BM2"/>
-    <mergeCell ref="BN2:BT2"/>
-    <mergeCell ref="BU2:CA2"/>
+    <mergeCell ref="NQ2:NW2"/>
+    <mergeCell ref="MA2:MG2"/>
+    <mergeCell ref="MH2:MN2"/>
+    <mergeCell ref="MO2:MU2"/>
+    <mergeCell ref="MV2:NB2"/>
+    <mergeCell ref="NC2:NI2"/>
+    <mergeCell ref="NJ2:NP2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="14" priority="2">
-      <formula>AND(A7=0,OR(A29=5,A29=1,A18=6),COLUMN(A7)&gt;2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="10">
-      <formula>A29=2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="12" priority="11">
-      <formula>A18&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD27">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>A7&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>WEEKDAY(A$6,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="13">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>WEEKDAY(A$6,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="8" priority="16">
+  <conditionalFormatting sqref="A7:XFD16">
+    <cfRule type="expression" dxfId="13" priority="1">
+      <formula>AND(A7=0,OR(A29=5,A29=1,A18=6),COLUMN(A7)&gt;2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="10">
+      <formula>AND(A7&gt;0,AND(A29&lt;&gt;5,A29&lt;&gt;1,COLUMN(A7)&gt;2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>A29=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="13">
+      <formula>A18&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="17">
+      <formula>A29=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula>A29=5</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="7" priority="15">
-      <formula>A29=3</formula>
+    <cfRule type="expression" dxfId="7" priority="12">
+      <formula>A29=9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:XFD12">
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>AND(A7&gt;0,AND(A29&lt;&gt;5,A29&lt;&gt;1,COLUMN(A7)&gt;2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:XFD34">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="C29:XFD38">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
-      <formula>1</formula>
+      <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
